--- a/workbook for making ENY PDFs.xlsx
+++ b/workbook for making ENY PDFs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olink\PycharmProjects\RBASE_Problem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\otothekay\PycharmProjects\RBASE Problem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8899ABF2-3CEC-4D2A-BDAB-CAA583AB220B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA0AC6A-BD69-478A-A351-8EE065483DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E228B700-F0CB-4E36-9181-666B80B52A2E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{E228B700-F0CB-4E36-9181-666B80B52A2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5418,6 +5418,1050 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="299377" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="TextBox 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44BBBC95-6CC0-46B8-80DC-43B237E57C3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5814060" y="6858000"/>
+          <a:ext cx="299377" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>-4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>386715</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="TextBox 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1DDF673-6E6F-4DD1-B7E1-F2BCB0632652}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7092315" y="6846570"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>0</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>169545</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="326436" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="TextBox 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBEBC970-CA53-4CB2-83FC-52A9482CE7BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8334375" y="6837045"/>
+          <a:ext cx="326436" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>+4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>270510</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="299377" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="TextBox 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6582E35-2BFF-49D8-BFD5-BF6463D9CC4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5147310" y="9896475"/>
+          <a:ext cx="299377" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>-4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>131445</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="TextBox 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4354245D-C193-4FB6-A614-BCE1BFEF0771}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5958840" y="9846945"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>0</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>150495</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="326436" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="TextBox 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DD6E5EE-E09A-4B97-9B3A-14D704C43E4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6686550" y="9865995"/>
+          <a:ext cx="326436" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>+4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>150495</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="326436" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="TextBox 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D809C7AE-F97A-4885-9EEC-2EE9C36E73FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7429500" y="9865995"/>
+          <a:ext cx="326436" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>+8</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>118110</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="299377" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="TextBox 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99E6850D-DAEA-4F3B-87EE-29ED3C46D0CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4385310" y="9896475"/>
+          <a:ext cx="299377" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>-8</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>194310</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="299377" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="TextBox 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EB54152-0773-4EB2-9DCA-F5F3EE17A2AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9947910" y="9915525"/>
+          <a:ext cx="299377" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>-4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>150495</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="TextBox 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D8BA5F1-2B26-4DE8-AD3C-E10EBACF6D3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10759440" y="9865995"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>0</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>169545</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="326436" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="TextBox 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{065A2FE6-65F6-4A88-8A3D-65267CF00A60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11487150" y="9885045"/>
+          <a:ext cx="326436" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>+4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>169545</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="326436" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="TextBox 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E3E84A7-DADE-4098-8CA6-78BE26B3B06F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12230100" y="9885045"/>
+          <a:ext cx="326436" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>+8</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>41910</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="299377" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="TextBox 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9F1B728-A57C-417E-87C2-B6910A92D02A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9185910" y="9915525"/>
+          <a:ext cx="299377" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>-8</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="299377" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="TextBox 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5964715-F30A-4107-B696-125C7DB500B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6042660" y="12887325"/>
+          <a:ext cx="299377" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>-4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>148590</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>74295</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="TextBox 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7162AFF-6BCD-40BD-880B-BA8075667CB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6854190" y="12837795"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>0</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>93345</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="326436" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="TextBox 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7CF8AFE-B54B-4F77-9E66-376B7A36A841}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7581900" y="12856845"/>
+          <a:ext cx="326436" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>+4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>93345</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="326436" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="TextBox 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62004A01-B25D-4550-824A-F64A04B0524B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8324850" y="12856845"/>
+          <a:ext cx="326436" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>+8</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="299377" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="TextBox 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{716A0552-1CE6-4C71-804A-6A7F7C754778}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5280660" y="12887325"/>
+          <a:ext cx="299377" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>-8</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5720,13 +6764,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3A98C21-AC4F-4041-9CBA-1DE62ACCD293}">
   <dimension ref="D3:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="R65" sqref="R65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="4:9" x14ac:dyDescent="0.25">
       <c r="E3">
         <v>8</v>
       </c>
@@ -5743,7 +6787,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="4:9" x14ac:dyDescent="0.25">
       <c r="E4">
         <v>0.2</v>
       </c>
@@ -5760,7 +6804,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>0</v>
       </c>
@@ -5768,7 +6812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D7" cm="1">
         <f t="array" ref="D7:D11">TRANSPOSE(E3:I3)</f>
         <v>8</v>
@@ -5778,7 +6822,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D8">
         <v>12</v>
       </c>
@@ -5786,7 +6830,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D9">
         <v>16</v>
       </c>
@@ -5794,7 +6838,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="10" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D10">
         <v>20</v>
       </c>
@@ -5802,7 +6846,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D11">
         <v>24</v>
       </c>
@@ -5810,112 +6854,112 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="27" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E28">
         <v>0.25</v>
       </c>
     </row>
-    <row r="29" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E29">
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E30">
         <v>0.25</v>
       </c>
     </row>
-    <row r="41" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E41" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E42">
         <v>0.1</v>
       </c>
     </row>
-    <row r="43" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E43">
         <v>0.2</v>
       </c>
     </row>
-    <row r="44" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E44">
         <v>0.4</v>
       </c>
     </row>
-    <row r="45" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E45">
         <v>0.2</v>
       </c>
     </row>
-    <row r="46" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E46">
         <v>0.1</v>
       </c>
     </row>
-    <row r="48" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E48" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E49">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E50">
         <v>0.1</v>
       </c>
     </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E51">
         <v>0.4</v>
       </c>
     </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E52">
         <v>0.3</v>
       </c>
     </row>
-    <row r="53" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E53">
         <v>0.2</v>
       </c>
     </row>
-    <row r="56" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E56" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E57">
         <v>0.2</v>
       </c>
     </row>
-    <row r="58" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E58">
         <v>0.3</v>
       </c>
     </row>
-    <row r="59" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E59">
         <v>0.4</v>
       </c>
     </row>
-    <row r="60" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E60">
         <v>0.1</v>
       </c>
     </row>
-    <row r="61" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E61">
         <v>0</v>
       </c>
